--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835FD7BC-B13B-6243-9855-3DAA2E3272DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B79C57-C59C-F04A-A438-50194601EC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10820" yWindow="500" windowWidth="33380" windowHeight="26300" activeTab="1" xr2:uid="{CF88BFFC-1CD0-7E40-88AF-393BDC9444C2}"/>
   </bookViews>
@@ -4666,9 +4666,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4706,7 +4706,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4812,7 +4812,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4954,7 +4954,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="AT31" s="1">
         <f>+Main!I3</f>
-        <v>188.85</v>
+        <v>182.63</v>
       </c>
     </row>
     <row r="32" spans="2:166">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="AT32" s="4">
         <f>+AT30/AT31-1</f>
-        <v>-4.8785487477629896E-2</v>
+        <v>-1.6389088923782547E-2</v>
       </c>
     </row>
     <row r="33" spans="2:46">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="AT34" s="28">
         <f>+Main!I8/Model!AH22</f>
-        <v>27.428059422689454</v>
+        <v>26.500677271696745</v>
       </c>
     </row>
     <row r="35" spans="2:46">
@@ -10929,7 +10929,7 @@
   <dimension ref="B2:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -10962,7 +10962,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="1">
-        <v>188.85</v>
+        <v>182.63</v>
       </c>
     </row>
     <row r="4" spans="2:19">
@@ -10971,7 +10971,7 @@
       </c>
       <c r="C4" s="1">
         <f ca="1">(TODAY()-C3)/365</f>
-        <v>47.890410958904113</v>
+        <v>47.939726027397263</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="I5" s="1">
         <f>+I3*I4</f>
-        <v>2916199.2268499997</v>
+        <v>2820150.7270299997</v>
       </c>
     </row>
     <row r="6" spans="2:19">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="I8" s="1">
         <f>+I5-I6+I7</f>
-        <v>2840710.2268499997</v>
+        <v>2744661.7270299997</v>
       </c>
     </row>
     <row r="9" spans="2:19">

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B79C57-C59C-F04A-A438-50194601EC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E356C28-325D-0845-AF41-3BF3300A9026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10820" yWindow="500" windowWidth="33380" windowHeight="26300" activeTab="1" xr2:uid="{CF88BFFC-1CD0-7E40-88AF-393BDC9444C2}"/>
+    <workbookView xWindow="10820" yWindow="500" windowWidth="33380" windowHeight="26300" xr2:uid="{CF88BFFC-1CD0-7E40-88AF-393BDC9444C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -4972,11 +4972,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE7EBEC-8120-D240-A80B-6561CC74A937}">
   <dimension ref="A1:FJ92"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG8" sqref="AG8:AG11"/>
+      <selection pane="bottomRight" activeCell="Y46" sqref="Y46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="AT31" s="1">
         <f>+Main!I3</f>
-        <v>182.63</v>
+        <v>172.28</v>
       </c>
     </row>
     <row r="32" spans="2:166">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="AT32" s="4">
         <f>+AT30/AT31-1</f>
-        <v>-1.6389088923782547E-2</v>
+        <v>4.2702929474399687E-2</v>
       </c>
     </row>
     <row r="33" spans="2:46">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="AT34" s="28">
         <f>+Main!I8/Model!AH22</f>
-        <v>26.500677271696745</v>
+        <v>24.957525300189587</v>
       </c>
     </row>
     <row r="35" spans="2:46">
@@ -10928,8 +10928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2F387F-76CE-8744-B6C0-ABD52B5515DD}">
   <dimension ref="B2:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -10962,7 +10962,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="1">
-        <v>182.63</v>
+        <v>172.28</v>
       </c>
     </row>
     <row r="4" spans="2:19">
@@ -10971,7 +10971,7 @@
       </c>
       <c r="C4" s="1">
         <f ca="1">(TODAY()-C3)/365</f>
-        <v>47.939726027397263</v>
+        <v>48.008219178082193</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="I5" s="1">
         <f>+I3*I4</f>
-        <v>2820150.7270299997</v>
+        <v>2660327.25868</v>
       </c>
     </row>
     <row r="6" spans="2:19">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="I8" s="1">
         <f>+I5-I6+I7</f>
-        <v>2744661.7270299997</v>
+        <v>2584838.25868</v>
       </c>
     </row>
     <row r="9" spans="2:19">
